--- a/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
@@ -1116,10 +1116,18 @@
       <c r="H18" t="n">
         <v>12.45362424817481</v>
       </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>0.07474197184987606</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.1600000616138411</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-0.147261406832683</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.045720617683503</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">

--- a/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
@@ -524,10 +524,18 @@
       <c r="H2" t="n">
         <v>13.42237825943953</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>-0.2051071372574013</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3037700709882454</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-0.1987230108742328</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.292162609111811</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1158,10 +1166,18 @@
       <c r="H19" t="n">
         <v>6.792318252952822</v>
       </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="I19" t="n">
+        <v>-0.4335568406464395</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.397851208992047</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.1273926462583985</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.916091474589909</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">

--- a/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
@@ -1208,10 +1208,18 @@
       <c r="H20" t="n">
         <v>7.538921199370701</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.475090227869142</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3390417815583261</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2941700511571806</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.206662329477553</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
@@ -688,19 +688,19 @@
         <v>0.4794520547945205</v>
       </c>
       <c r="D7" t="n">
-        <v>121215.7130411246</v>
+        <v>121208.39890571</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02523280298646926</v>
+        <v>-0.02675736004434551</v>
       </c>
       <c r="F7" t="n">
-        <v>0.235436626324864</v>
+        <v>0.2427200386657377</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.6474244171760768</v>
+        <v>-0.7772775658794857</v>
       </c>
       <c r="H7" t="n">
-        <v>5.373286344768274</v>
+        <v>5.878484890207581</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -722,19 +722,19 @@
         <v>0.8054794520547945</v>
       </c>
       <c r="D8" t="n">
-        <v>121475.2719992533</v>
+        <v>121473.2495089783</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.04333510142186524</v>
+        <v>-0.04344350487129781</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2085669313453871</v>
+        <v>0.2090703374888578</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8334766745992531</v>
+        <v>-0.8501621764412184</v>
       </c>
       <c r="H8" t="n">
-        <v>6.532479721300039</v>
+        <v>6.658461103396522</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -756,19 +756,19 @@
         <v>0.8821917808219178</v>
       </c>
       <c r="D9" t="n">
-        <v>123914.1353594795</v>
+        <v>123565.7903413193</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.06286834051708561</v>
+        <v>-0.07364479176811603</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3199338085287871</v>
+        <v>0.3595636893797028</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.61742638886841</v>
+        <v>-2.022994663812912</v>
       </c>
       <c r="H9" t="n">
-        <v>10.37800070818694</v>
+        <v>12.75122567204191</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -790,19 +790,19 @@
         <v>1.131506849315068</v>
       </c>
       <c r="D10" t="n">
-        <v>124755.0258339876</v>
+        <v>124754.5125494682</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1118425504768855</v>
+        <v>-0.1118687796455338</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4388990735781293</v>
+        <v>0.4390188915677648</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.925685459490934</v>
+        <v>-1.926370987563858</v>
       </c>
       <c r="H10" t="n">
-        <v>9.909062571801138</v>
+        <v>9.911098807693437</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -900,19 +900,19 @@
         <v>0.0273972602739726</v>
       </c>
       <c r="D13" t="n">
-        <v>116927.462196039</v>
+        <v>116976.6969166577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0002827790057591115</v>
+        <v>0.004491494622911664</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1269027697526002</v>
+        <v>0.1009526540357622</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.265191817335985</v>
+        <v>-0.5829877988252592</v>
       </c>
       <c r="H13" t="n">
-        <v>45.14921583920328</v>
+        <v>9.521702830545536</v>
       </c>
       <c r="I13" t="n">
         <v>0.2787794066683058</v>
@@ -1068,19 +1068,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D17" t="n">
-        <v>116901.8788369405</v>
+        <v>116917.6199590839</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004781844402154561</v>
+        <v>0.006169810849410319</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09369957797641473</v>
+        <v>0.08645647194491804</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.763656130584297</v>
+        <v>-0.7421589743455126</v>
       </c>
       <c r="H17" t="n">
-        <v>21.36219111116814</v>
+        <v>7.279101729407761</v>
       </c>
       <c r="I17" t="n">
         <v>0.3707355424569431</v>
@@ -1110,19 +1110,19 @@
         <v>0.03835616438356165</v>
       </c>
       <c r="D18" t="n">
-        <v>116939.4374151619</v>
+        <v>116962.3750568939</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.00176538017671027</v>
+        <v>-0.0001193861189121011</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1144986558469984</v>
+        <v>0.1063699877475345</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.183934993031339</v>
+        <v>-0.5289535724714836</v>
       </c>
       <c r="H18" t="n">
-        <v>12.45362424817481</v>
+        <v>6.748736341346964</v>
       </c>
       <c r="I18" t="n">
         <v>0.07474197184987606</v>
@@ -1194,19 +1194,19 @@
         <v>0.0958904109589041</v>
       </c>
       <c r="D20" t="n">
-        <v>117705.8471365161</v>
+        <v>117776.3619845627</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00454366214204751</v>
+        <v>0.007624718392454</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1434825440871196</v>
+        <v>0.1342423211913152</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.5950200263214391</v>
+        <v>-0.2301401050947217</v>
       </c>
       <c r="H20" t="n">
-        <v>7.538921199370701</v>
+        <v>5.815856764522648</v>
       </c>
       <c r="I20" t="n">
         <v>-0.475090227869142</v>

--- a/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>10.75230115308703</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.4455089664518735</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2820766268347986</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.0999203879827317</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.41190075823628</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
+++ b/data_processed/20250808/BTCUSDQMOMENT_20250808.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>9.509317549000551</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.4551375938158524</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.4962935625645516</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.4459566511720581</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.658316893901198</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
